--- a/data/HIST.xlsx
+++ b/data/HIST.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HIST 100 or History minor; completion of GE Area A1 and A3 with grades of C- or better.</t>
+          <t>HIST 100 or History minor; completion of GE Area A1 and A3 with grades of C- or better.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HIST 303; History major.</t>
+          <t>HIST 303; History major.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -921,7 +1296,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TBDPrerequisites: Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3.</t>
         </is>
       </c>
     </row>
@@ -943,7 +1333,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F, SPPrerequisites: Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>F, Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3.</t>
         </is>
       </c>
     </row>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1268,12 +1883,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D2, or D3. Recommended: One or more courses in GE Area B.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D2, or D3.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>One or more courses in GE Area B.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1339,6 +1999,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Junior standing and HIST 303; or Junior standing; ISLA 123; and completion of GE Area A3 with a grade of C- or better; or Graduate standing.</t>
+          <t>Junior standing and HIST 303; or Junior standing; ISLA 123; and completion of GE Area A3 with a grade of C- or better; or Graduate standing.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HIST 303; completion of GE Area D5; or graduate standing.</t>
+          <t>HIST 303; completion of GE Area D5; or graduate standing.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing. Recommended GE D5: HIST 316, HUM 310.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing. Recommended GE HIST 316, HUM 310.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1691,6 +2591,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1708,12 +2623,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HIST 424. Concurrent: EDUC 469 or EDUC 479.</t>
+          <t>HIST 424.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>EDUC 469 or EDUC 479.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Completion of GE Area D5 or HIST 303 (may be taken concurrently).</t>
+          <t>Completion of GE Area D5 or HIST 303 (may be taken concurrently).</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5 or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5 or graduate standing.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2038,10 +3178,25 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2060,10 +3215,25 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2082,10 +3252,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2126,10 +3326,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
+          <t>HIST 303 or completion of GE Area D5, or graduate standing.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HIST 303; HIST 304; senior standing; and History major.</t>
+          <t>HIST 303; HIST 304; senior standing; and History major.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HIST 303, HIST 304; HIST 460; senior standing; and History major.</t>
+          <t>HIST 303, HIST 304; HIST 460; senior standing; and History major.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Junior standing, completion of HIST 303 with grade of B or better and consent of internship coordinator.</t>
+          <t>Junior standing, completion of HIST 303 with grade of B or better and consent of internship coordinator.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2236,10 +3511,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2258,10 +3548,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>HIST 303 or graduate standing.</t>
+          <t>HIST 303 or graduate standing.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2307,6 +3627,21 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2329,6 +3664,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2417,6 +3812,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2439,6 +3849,21 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2461,6 +3886,21 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2483,6 +3923,21 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2505,6 +3960,21 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2527,6 +3997,21 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2544,10 +4029,25 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HIST 504 and 12 units of graduate study.</t>
+          <t>HIST 504 and 12 units of graduate study.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2571,6 +4071,21 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2592,6 +4107,21 @@
         </is>
       </c>
       <c r="D102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
